--- a/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/data/X_TABULAR/zero.group.type.xlsx
+++ b/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/data/X_TABULAR/zero.group.type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/data/X_TABULAR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B2C9E-AF92-9546-B546-38E0DAABC68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FB9860-BF9A-D44D-B6A5-3E6EF719D7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -136,23 +136,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,7 +160,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +168,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +176,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -639,29 +639,29 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:XFD10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="55.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -741,7 +741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -761,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
